--- a/tests/excel_examples/devliery_confirmations.xlsx
+++ b/tests/excel_examples/devliery_confirmations.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunyoungyoo/Projects/dotori/tests/excel_examples/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA30E5DE-2281-2149-8291-C1C50561C86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet0"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="135">
   <si>
     <t>NO</t>
   </si>
@@ -413,18 +419,27 @@
   </si>
   <si>
     <t>문 앞에 놓아주세요 비밀번호 없이 출입 가능</t>
+  </si>
+  <si>
+    <t>20241010878647895</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241010878934705</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -433,6 +448,24 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -443,7 +476,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -458,57 +491,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -519,10 +560,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -560,71 +601,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,7 +693,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -675,11 +716,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -688,13 +729,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -704,7 +745,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -713,7 +754,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -722,7 +763,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -730,10 +771,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -798,67 +839,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AV21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" style="10" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="11" width="43.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="39" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="48" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:48" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1015,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:48" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -1026,7 +1037,7 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="3">
+      <c r="J2" s="9">
         <v>2024070568997150</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1040,10 +1051,10 @@
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="4" t="s">
+      <c r="P2" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" t="s">
         <v>56</v>
       </c>
       <c r="R2" s="2" t="s">
@@ -1070,37 +1081,23 @@
       <c r="Y2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" t="s">
         <v>59</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="4"/>
       <c r="AI2" s="2"/>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="6">
+      <c r="AN2" s="5">
         <v>1</v>
       </c>
       <c r="AO2" s="2"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:48" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -1122,7 +1119,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="3">
+      <c r="J3" s="9">
         <v>2024070568997151</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1136,10 +1133,10 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="4" t="s">
+      <c r="P3" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" t="s">
         <v>56</v>
       </c>
       <c r="R3" s="2" t="s">
@@ -1166,37 +1163,23 @@
       <c r="Y3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" t="s">
         <v>59</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="4"/>
       <c r="AI3" s="2"/>
-      <c r="AJ3" s="5" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="6">
+      <c r="AN3" s="5">
         <v>1</v>
       </c>
       <c r="AO3" s="2"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:48" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -1218,7 +1201,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="3">
+      <c r="J4" s="9">
         <v>2024070568997152</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1232,10 +1215,10 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="4" t="s">
+      <c r="P4" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" t="s">
         <v>56</v>
       </c>
       <c r="R4" s="2" t="s">
@@ -1262,37 +1245,23 @@
       <c r="Y4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4" t="s">
+      <c r="AC4" t="s">
         <v>59</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="4"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="5" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="6">
+      <c r="AN4" s="5">
         <v>1</v>
       </c>
       <c r="AO4" s="2"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:48" ht="18.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -1314,7 +1283,7 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="3">
+      <c r="J5" s="9">
         <v>2024070568997153</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1328,10 +1297,10 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="4" t="s">
+      <c r="P5" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" t="s">
         <v>74</v>
       </c>
       <c r="R5" s="2" t="s">
@@ -1358,35 +1327,21 @@
       <c r="Y5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4" t="s">
+      <c r="AC5" t="s">
         <v>59</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="4"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="6">
+      <c r="AJ5" s="6"/>
+      <c r="AN5" s="5">
         <v>1</v>
       </c>
       <c r="AO5" s="2"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:48" ht="18.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -1396,7 +1351,6 @@
       <c r="C6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
         <v>48</v>
       </c>
@@ -1406,9 +1360,7 @@
       <c r="G6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="8">
+      <c r="J6" s="10">
         <v>2024070568997154</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1420,12 +1372,10 @@
       <c r="M6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
+      <c r="P6" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" t="s">
         <v>79</v>
       </c>
       <c r="R6" s="2" t="s">
@@ -1452,37 +1402,17 @@
       <c r="Y6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4" t="s">
+      <c r="AC6" t="s">
         <v>59</v>
       </c>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="5" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="6">
+      <c r="AN6" s="5">
         <v>1</v>
       </c>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:48" ht="18.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1492,7 +1422,6 @@
       <c r="C7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
         <v>48</v>
       </c>
@@ -1502,9 +1431,7 @@
       <c r="G7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="8">
+      <c r="J7" s="10">
         <v>2024070568997155</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -1516,12 +1443,10 @@
       <c r="M7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
+      <c r="P7" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" t="s">
         <v>79</v>
       </c>
       <c r="R7" s="2" t="s">
@@ -1548,37 +1473,17 @@
       <c r="Y7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4" t="s">
+      <c r="AC7" t="s">
         <v>59</v>
       </c>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="5" t="s">
+      <c r="AJ7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="6">
+      <c r="AN7" s="5">
         <v>1</v>
       </c>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:48" ht="18.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>84</v>
       </c>
@@ -1588,7 +1493,6 @@
       <c r="C8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
@@ -1598,9 +1502,7 @@
       <c r="G8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="10" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -1612,12 +1514,10 @@
       <c r="M8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
       <c r="P8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" t="s">
         <v>88</v>
       </c>
       <c r="R8" s="2" t="s">
@@ -1644,35 +1544,14 @@
       <c r="Y8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
       <c r="AC8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="6">
+      <c r="AN8" s="5">
         <v>1</v>
       </c>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:48" ht="18.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
@@ -1682,7 +1561,6 @@
       <c r="C9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
         <v>48</v>
       </c>
@@ -1692,9 +1570,7 @@
       <c r="G9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="8">
+      <c r="J9" s="10">
         <v>6950051903</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1706,8 +1582,6 @@
       <c r="M9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
       <c r="P9" s="2" t="s">
         <v>93</v>
       </c>
@@ -1738,35 +1612,14 @@
       <c r="Y9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
       <c r="AC9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="6">
+      <c r="AN9" s="5">
         <v>1</v>
       </c>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:48" ht="18.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>96</v>
       </c>
@@ -1776,7 +1629,6 @@
       <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
         <v>48</v>
       </c>
@@ -1786,9 +1638,7 @@
       <c r="G10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="8">
+      <c r="J10" s="10">
         <v>7604361881</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -1800,8 +1650,6 @@
       <c r="M10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
       <c r="P10" s="2" t="s">
         <v>99</v>
       </c>
@@ -1832,35 +1680,14 @@
       <c r="Y10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
       <c r="AC10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="6">
+      <c r="AN10" s="5">
         <v>1</v>
       </c>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:48" ht="18.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>102</v>
       </c>
@@ -1870,7 +1697,6 @@
       <c r="C11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
         <v>48</v>
       </c>
@@ -1880,9 +1706,7 @@
       <c r="G11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="8">
+      <c r="J11" s="10">
         <v>7444642307</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -1894,8 +1718,6 @@
       <c r="M11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
       <c r="P11" s="2" t="s">
         <v>105</v>
       </c>
@@ -1926,35 +1748,14 @@
       <c r="Y11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
       <c r="AC11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="6">
+      <c r="AN11" s="5">
         <v>1</v>
       </c>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:48" ht="18.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
@@ -1964,7 +1765,6 @@
       <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="4"/>
       <c r="E12" s="2" t="s">
         <v>48</v>
       </c>
@@ -1974,9 +1774,7 @@
       <c r="G12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="8">
+      <c r="J12" s="10">
         <v>70472234126074</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1988,8 +1786,6 @@
       <c r="M12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
       <c r="P12" s="2" t="s">
         <v>111</v>
       </c>
@@ -2020,37 +1816,17 @@
       <c r="Y12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
       <c r="AC12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
       <c r="AJ12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="6">
+      <c r="AN12" s="5">
         <v>1</v>
       </c>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:48" ht="18.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>114</v>
       </c>
@@ -2060,7 +1836,6 @@
       <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="4"/>
       <c r="E13" s="2" t="s">
         <v>48</v>
       </c>
@@ -2070,9 +1845,7 @@
       <c r="G13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="8">
+      <c r="J13" s="10">
         <v>59645562145217</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -2084,8 +1857,6 @@
       <c r="M13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
       <c r="P13" s="2" t="s">
         <v>117</v>
       </c>
@@ -2116,37 +1887,17 @@
       <c r="Y13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
       <c r="AC13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
       <c r="AJ13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="6">
+      <c r="AN13" s="5">
         <v>1</v>
       </c>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:48" ht="18.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -2156,7 +1907,6 @@
       <c r="C14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="4"/>
       <c r="E14" s="2" t="s">
         <v>48</v>
       </c>
@@ -2166,10 +1916,8 @@
       <c r="G14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="8">
-        <v>20241010878647896</v>
+      <c r="J14" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>52</v>
@@ -2180,8 +1928,6 @@
       <c r="M14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
       <c r="P14" s="2" t="s">
         <v>124</v>
       </c>
@@ -2212,35 +1958,15 @@
       <c r="Y14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
       <c r="AC14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="6">
+      <c r="AJ14" s="5"/>
+      <c r="AN14" s="5">
         <v>1</v>
       </c>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:48" ht="18.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>127</v>
       </c>
@@ -2250,7 +1976,6 @@
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="4"/>
       <c r="E15" s="2" t="s">
         <v>48</v>
       </c>
@@ -2260,10 +1985,8 @@
       <c r="G15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="8">
-        <v>20241010878934704</v>
+      <c r="J15" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>52</v>
@@ -2274,8 +1997,6 @@
       <c r="M15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
       <c r="P15" s="2" t="s">
         <v>130</v>
       </c>
@@ -2306,337 +2027,42 @@
       <c r="Y15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
       <c r="AC15" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
       <c r="AJ15" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="6">
+      <c r="AN15" s="5">
         <v>1</v>
       </c>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="8"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
-      <c r="AV16" s="4"/>
+    <row r="16" spans="1:48" ht="17.25" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="8"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
+    <row r="17" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="8"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
+    <row r="18" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="8"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
+    <row r="19" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="8"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
+    <row r="20" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
+    <row r="21" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/excel_examples/devliery_confirmations.xlsx
+++ b/tests/excel_examples/devliery_confirmations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunyoungyoo/Projects/dotori/tests/excel_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA30E5DE-2281-2149-8291-C1C50561C86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7A77C7-5637-DF46-888F-2B83CC19CBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="2540" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="149">
   <si>
     <t>NO</t>
   </si>
@@ -426,6 +426,55 @@
   </si>
   <si>
     <t>20241010878934705</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>623959232870</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1023811721</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9691126363</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상도 구미시 불고기구 쌈장동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6개월 세트(재사용 가능 필터본품 1개+리필주머니 6개)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무인택배함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024070568997150</t>
+  </si>
+  <si>
+    <t>2024070568997151</t>
+  </si>
+  <si>
+    <t>2024070568997152</t>
+  </si>
+  <si>
+    <t>2024070568997153</t>
+  </si>
+  <si>
+    <t>2024070568997154</t>
+  </si>
+  <si>
+    <t>2024070568997155</t>
   </si>
 </sst>
 </file>
@@ -433,7 +482,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -510,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -532,12 +581,11 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -845,8 +893,8 @@
   </sheetPr>
   <dimension ref="A1:AV21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1037,8 +1085,8 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9">
-        <v>2024070568997150</v>
+      <c r="J2" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>52</v>
@@ -1119,8 +1167,8 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="9">
-        <v>2024070568997151</v>
+      <c r="J3" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>52</v>
@@ -1201,8 +1249,8 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="9">
-        <v>2024070568997152</v>
+      <c r="J4" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>52</v>
@@ -1283,8 +1331,8 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="9">
-        <v>2024070568997153</v>
+      <c r="J5" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>52</v>
@@ -1360,8 +1408,8 @@
       <c r="G6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="10">
-        <v>2024070568997154</v>
+      <c r="J6" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>52</v>
@@ -1431,8 +1479,8 @@
       <c r="G7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="10">
-        <v>2024070568997155</v>
+      <c r="J7" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>52</v>
@@ -1502,7 +1550,7 @@
       <c r="G8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -1570,7 +1618,7 @@
       <c r="G9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>6950051903</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1638,7 +1686,7 @@
       <c r="G10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>7604361881</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -1706,7 +1754,7 @@
       <c r="G11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>7444642307</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -1774,7 +1822,7 @@
       <c r="G12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>70472234126074</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1845,7 +1893,7 @@
       <c r="G13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>59645562145217</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -1916,7 +1964,7 @@
       <c r="G14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>133</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -1985,7 +2033,7 @@
       <c r="G15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>134</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -2038,8 +2086,100 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="17.25" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="X16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1">
       <c r="A17" s="5"/>
